--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>S. No</t>
   </si>
@@ -118,6 +117,33 @@
   </si>
   <si>
     <t>MY Attempts At: https://github.com/myNameIsAnant/Vegeta/tree/main/00_QnA</t>
+  </si>
+  <si>
+    <t>485. Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/description/</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t>Merge 2 Sorted Array</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/sorted-array_6613259</t>
+  </si>
+  <si>
+    <t>Longest Subarray With Sum K</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/longest-subarray-with-sum-k_6682399</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/studio/problems/longest-subarray-with-sum-k_5713505</t>
   </si>
 </sst>
 </file>
@@ -211,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -219,6 +245,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,6 +442,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BDD1-4422-B0A7-57CC0E222AF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -454,6 +490,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BDD1-4422-B0A7-57CC0E222AF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -497,6 +538,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BDD1-4422-B0A7-57CC0E222AF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -522,10 +568,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1470,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,13 +1532,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1539,9 +1585,9 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1566,9 +1612,9 @@
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,7 +1639,7 @@
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <f>COUNTIF($D:$D,$G5)</f>
         <v>0</v>
       </c>
@@ -1715,6 +1761,106 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1732,9 +1878,14 @@
     <hyperlink ref="E9" r:id="rId7"/>
     <hyperlink ref="E10" r:id="rId8"/>
     <hyperlink ref="E8" r:id="rId9"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E13" r:id="rId11"/>
+    <hyperlink ref="E12" r:id="rId12"/>
+    <hyperlink ref="E15" r:id="rId13"/>
+    <hyperlink ref="E16" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>S. No</t>
   </si>
@@ -144,6 +144,36 @@
   </si>
   <si>
     <t>https://www.codingninjas.com/studio/problems/longest-subarray-with-sum-k_5713505</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/description</t>
+  </si>
+  <si>
+    <t>1. Two Sum</t>
+  </si>
+  <si>
+    <t>75. Sort Colors</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-colors/description/</t>
+  </si>
+  <si>
+    <t>169. Majority Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>121. Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
   </si>
 </sst>
 </file>
@@ -568,10 +598,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1516,15 +1546,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" customWidth="1"/>
     <col min="6" max="6" width="1.140625" customWidth="1"/>
@@ -1587,7 +1617,7 @@
       </c>
       <c r="H3" s="7">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1614,7 +1644,7 @@
       </c>
       <c r="H4" s="7">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1861,6 +1891,106 @@
         <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1883,9 +2013,14 @@
     <hyperlink ref="E12" r:id="rId12"/>
     <hyperlink ref="E15" r:id="rId13"/>
     <hyperlink ref="E16" r:id="rId14"/>
+    <hyperlink ref="E17" r:id="rId15"/>
+    <hyperlink ref="E18" r:id="rId16"/>
+    <hyperlink ref="E19" r:id="rId17"/>
+    <hyperlink ref="E20" r:id="rId18"/>
+    <hyperlink ref="E21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$24</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
   <si>
     <t>S. No</t>
   </si>
@@ -62,27 +65,12 @@
     <t>Check Sorted Array</t>
   </si>
   <si>
-    <t>CodingNinjas</t>
-  </si>
-  <si>
-    <t>https://www.codingninjas.com/studio/problems/largest-element-in-the-array-largest-element-in-the-array_5026279</t>
-  </si>
-  <si>
-    <t>https://www.codingninjas.com/studio/problems/ninja-and-the-second-order-elements_6581960</t>
-  </si>
-  <si>
-    <t>https://www.codingninjas.com/studio/problems/ninja-and-the-sorted-check_6581957</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/check-if-array-is-sorted-and-rotated/description/</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/description/</t>
   </si>
   <si>
-    <t>Leet Code</t>
-  </si>
-  <si>
     <t>1752. Check if Array Is Sorted and Rotated</t>
   </si>
   <si>
@@ -101,18 +89,12 @@
     <t>Linear Search</t>
   </si>
   <si>
-    <t>https://www.codingninjas.com/studio/problems/linear-search_6922070</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/rotate-array/description/</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/move-zeroes/description/</t>
   </si>
   <si>
-    <t>https://www.codingninjas.com/studio/problems/left-rotate-an-array-by-one_5026278</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
@@ -134,18 +116,9 @@
     <t>Merge 2 Sorted Array</t>
   </si>
   <si>
-    <t>https://www.codingninjas.com/studio/problems/sorted-array_6613259</t>
-  </si>
-  <si>
     <t>Longest Subarray With Sum K</t>
   </si>
   <si>
-    <t>https://www.codingninjas.com/studio/problems/longest-subarray-with-sum-k_6682399</t>
-  </si>
-  <si>
-    <t>https://www.codingninjas.com/studio/problems/longest-subarray-with-sum-k_5713505</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/two-sum/description</t>
   </si>
   <si>
@@ -174,13 +147,79 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rearrange-array-elements-by-sign/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/superior-elements_6783446</t>
+  </si>
+  <si>
+    <t>2149. Rearrange Array Elements by Sign</t>
+  </si>
+  <si>
+    <t>Superior Elements</t>
+  </si>
+  <si>
+    <t>Naukri Code 360</t>
+  </si>
+  <si>
+    <t>31. Next Permutation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-permutation/description/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/largest-element-in-the-array-largest-element-in-the-array_5026279</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/ninja-and-the-second-order-elements_6581960</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/ninja-and-the-sorted-check_6581957</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/left-rotate-an-array-by-one_5026278</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/linear-search_6922070</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/sorted-array_6613259</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/longest-subarray-with-sum-k_6682399</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/longest-subarray-with-sum-k_5713505</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
+  </si>
+  <si>
+    <t>Longest Successive Elements</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/longest-successive-elements_6811740</t>
+  </si>
+  <si>
+    <t>73. Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-matrix-zeroes/description/</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/two-sum_6845742</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,13 +229,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -214,6 +246,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,22 +311,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,32 +481,9 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -482,32 +506,9 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -530,32 +531,9 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -598,10 +576,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1546,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,18 +1535,18 @@
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="6" max="6" width="1.42578125" customWidth="1"/>
     <col min="7" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1586,6 +1564,7 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="7"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1601,23 +1580,23 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,23 +1607,23 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,21 +1634,21 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>COUNTIF($D:$D,$G5)</f>
         <v>0</v>
       </c>
@@ -1679,19 +1658,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1699,19 +1678,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1719,19 +1698,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1739,19 +1718,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1759,19 +1738,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,219 +1758,335 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="F25" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>29</v>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2016,11 +2111,10 @@
     <hyperlink ref="E17" r:id="rId15"/>
     <hyperlink ref="E18" r:id="rId16"/>
     <hyperlink ref="E19" r:id="rId17"/>
-    <hyperlink ref="E20" r:id="rId18"/>
-    <hyperlink ref="E21" r:id="rId19"/>
+    <hyperlink ref="E26" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
-  <drawing r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="97">
   <si>
     <t>S. No</t>
   </si>
@@ -213,6 +213,111 @@
   </si>
   <si>
     <t>https://www.naukri.com/code360/problems/two-sum_6845742</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>152. Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/description/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/missing-and-repeating-numbers_6828164</t>
+  </si>
+  <si>
+    <t>Missing And Repeating Numbers</t>
+  </si>
+  <si>
+    <t>118. Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/description/</t>
+  </si>
+  <si>
+    <t>15. 3Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/description/</t>
+  </si>
+  <si>
+    <t>18. 4Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/4sum/description/</t>
+  </si>
+  <si>
+    <t>560. Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/description/</t>
+  </si>
+  <si>
+    <t>229. Majority Element II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element-ii/description/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/longest-subarray-with-zero-sum_6783450</t>
+  </si>
+  <si>
+    <t>Longest Subarray With Zero Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>493. Reverse Pairs</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-pairs/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search/description/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/lower-bound_8165382</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/implement-upper-bound_8165383</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-insert-position/description/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/ceiling-in-a-sorted-array_1825401</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>Implement Lower Bound</t>
+  </si>
+  <si>
+    <t>Implement Upper Bound</t>
+  </si>
+  <si>
+    <t>704. Binary Search</t>
+  </si>
+  <si>
+    <t>35. Search Insert Position</t>
+  </si>
+  <si>
+    <t>Ceil The Floor</t>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -576,10 +681,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1524,15 +1629,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" customWidth="1"/>
     <col min="6" max="6" width="1.42578125" customWidth="1"/>
@@ -1596,7 +1704,7 @@
       </c>
       <c r="H3" s="6">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1623,7 +1731,7 @@
       </c>
       <c r="H4" s="6">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,7 +2131,9 @@
       <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2081,11 +2191,333 @@
       <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2112,9 +2544,25 @@
     <hyperlink ref="E18" r:id="rId16"/>
     <hyperlink ref="E19" r:id="rId17"/>
     <hyperlink ref="E26" r:id="rId18"/>
+    <hyperlink ref="E28" r:id="rId19"/>
+    <hyperlink ref="E29" r:id="rId20"/>
+    <hyperlink ref="E30" r:id="rId21"/>
+    <hyperlink ref="E31" r:id="rId22"/>
+    <hyperlink ref="E32" r:id="rId23"/>
+    <hyperlink ref="E33" r:id="rId24"/>
+    <hyperlink ref="E34" r:id="rId25"/>
+    <hyperlink ref="E35" r:id="rId26"/>
+    <hyperlink ref="E36" r:id="rId27"/>
+    <hyperlink ref="E37" r:id="rId28"/>
+    <hyperlink ref="E38" r:id="rId29"/>
+    <hyperlink ref="E39" r:id="rId30"/>
+    <hyperlink ref="E40" r:id="rId31"/>
+    <hyperlink ref="E41" r:id="rId32"/>
+    <hyperlink ref="E42" r:id="rId33"/>
+    <hyperlink ref="E43" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <drawing r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
+  <drawing r:id="rId36"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="111">
   <si>
     <t>S. No</t>
   </si>
@@ -318,6 +318,48 @@
   </si>
   <si>
     <t>34. Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>Number of occurrence</t>
+  </si>
+  <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>81. Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/occurrence-of-x-in-a-sorted-array_630456</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-peak-element/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-element-in-a-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>540. Single Element in a Sorted Array</t>
+  </si>
+  <si>
+    <t>162. Find Peak Element</t>
+  </si>
+  <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/rotation_7449070</t>
   </si>
 </sst>
 </file>
@@ -684,7 +726,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1629,13 +1671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1773,7 @@
       </c>
       <c r="H4" s="6">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2518,6 +2560,146 @@
         <v>90</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2560,9 +2742,16 @@
     <hyperlink ref="E41" r:id="rId32"/>
     <hyperlink ref="E42" r:id="rId33"/>
     <hyperlink ref="E43" r:id="rId34"/>
+    <hyperlink ref="E46" r:id="rId35"/>
+    <hyperlink ref="E45" r:id="rId36"/>
+    <hyperlink ref="E44" r:id="rId37"/>
+    <hyperlink ref="E47" r:id="rId38"/>
+    <hyperlink ref="E50" r:id="rId39"/>
+    <hyperlink ref="E49" r:id="rId40"/>
+    <hyperlink ref="E48" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
-  <drawing r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
+  <drawing r:id="rId43"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="119">
   <si>
     <t>S. No</t>
   </si>
@@ -360,6 +360,30 @@
   </si>
   <si>
     <t>https://www.naukri.com/code360/problems/rotation_7449070</t>
+  </si>
+  <si>
+    <t>Square Root of a number</t>
+  </si>
+  <si>
+    <t>Find Nth Root Of M</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/nth-root-of-m_1062679</t>
+  </si>
+  <si>
+    <t>875. Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>1482. Minimum Number of Days to Make m Bouquets</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-days-to-make-m-bouquets/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/square-root-integral_893351</t>
   </si>
 </sst>
 </file>
@@ -723,10 +747,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1671,13 +1695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1770,7 @@
       </c>
       <c r="H3" s="6">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,7 +1797,7 @@
       </c>
       <c r="H4" s="6">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2700,6 +2724,86 @@
         <v>104</v>
       </c>
       <c r="F50" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2749,9 +2853,13 @@
     <hyperlink ref="E50" r:id="rId39"/>
     <hyperlink ref="E49" r:id="rId40"/>
     <hyperlink ref="E48" r:id="rId41"/>
+    <hyperlink ref="E52" r:id="rId42"/>
+    <hyperlink ref="E54" r:id="rId43"/>
+    <hyperlink ref="E53" r:id="rId44"/>
+    <hyperlink ref="E51" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
-  <drawing r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
+  <drawing r:id="rId47"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="123">
   <si>
     <t>S. No</t>
   </si>
@@ -384,13 +384,25 @@
   </si>
   <si>
     <t>https://www.naukri.com/code360/problems/square-root-integral_893351</t>
+  </si>
+  <si>
+    <t>1011. Capacity To Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/description/</t>
+  </si>
+  <si>
+    <t>1283. Find the Smallest Divisor Given a Threshold</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold/description/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +443,14 @@
     <font>
       <sz val="8"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -500,6 +520,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -747,10 +770,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1695,13 +1718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,6 +1744,10 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
+      <c r="H1" s="10">
+        <f>SUM(H3:H5)</f>
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1770,7 +1797,7 @@
       </c>
       <c r="H3" s="6">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,7 +1824,7 @@
       </c>
       <c r="H4" s="6">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2498,7 +2525,7 @@
         <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>86</v>
@@ -2518,7 +2545,7 @@
         <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>87</v>
@@ -2804,6 +2831,46 @@
         <v>116</v>
       </c>
       <c r="F54" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2857,9 +2924,11 @@
     <hyperlink ref="E54" r:id="rId43"/>
     <hyperlink ref="E53" r:id="rId44"/>
     <hyperlink ref="E51" r:id="rId45"/>
+    <hyperlink ref="E56" r:id="rId46"/>
+    <hyperlink ref="E55" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
-  <drawing r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
+  <drawing r:id="rId49"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="133">
   <si>
     <t>S. No</t>
   </si>
@@ -396,6 +396,36 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold/description/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/introduction-to-linked-list_8144737</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/insert-node-at-the-beginning_8144739</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/count-nodes-of-linked-list_5884</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/search-in-a-linked-list_975381</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/delete-node-of-linked-list_8160463</t>
+  </si>
+  <si>
+    <t>Delete Node Of Linked List</t>
+  </si>
+  <si>
+    <t>Search in a Linked List</t>
+  </si>
+  <si>
+    <t>Insert Node At The Beginning</t>
+  </si>
+  <si>
+    <t>Introduction To Linked List</t>
+  </si>
+  <si>
+    <t>Count nodes of linked list</t>
   </si>
 </sst>
 </file>
@@ -518,11 +548,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,7 +800,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
@@ -1718,13 +1748,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,16 +1767,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="H1" s="10">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="H1" s="9">
         <f>SUM(H3:H5)</f>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,7 +1827,7 @@
       </c>
       <c r="H3" s="6">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2871,6 +2901,106 @@
         <v>120</v>
       </c>
       <c r="F56" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2926,9 +3056,14 @@
     <hyperlink ref="E51" r:id="rId45"/>
     <hyperlink ref="E56" r:id="rId46"/>
     <hyperlink ref="E55" r:id="rId47"/>
+    <hyperlink ref="E57" r:id="rId48"/>
+    <hyperlink ref="E58" r:id="rId49"/>
+    <hyperlink ref="E59" r:id="rId50"/>
+    <hyperlink ref="E60" r:id="rId51"/>
+    <hyperlink ref="E61" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
-  <drawing r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="147">
   <si>
     <t>S. No</t>
   </si>
@@ -426,6 +426,48 @@
   </si>
   <si>
     <t>Count nodes of linked list</t>
+  </si>
+  <si>
+    <t>Reverse A Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Introduction To Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Delete Last Node of a Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Insert at end of Doubly Linked List</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/introduction-to-doubly-linked-list_8160413</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/insert-at-end-of-doubly-linked-list_8160464</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/delete-last-node-of-a-doubly-linked-list_8160469</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/reverse-a-doubly-linked-list_1116098</t>
+  </si>
+  <si>
+    <t>876. Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/description/</t>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/description/</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
   </si>
 </sst>
 </file>
@@ -800,7 +842,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
@@ -1748,13 +1790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1818,7 @@
       <c r="E1" s="10"/>
       <c r="H1" s="9">
         <f>SUM(H3:H5)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1827,7 +1869,7 @@
       </c>
       <c r="H3" s="6">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3001,6 +3043,146 @@
         <v>127</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3061,9 +3243,16 @@
     <hyperlink ref="E59" r:id="rId50"/>
     <hyperlink ref="E60" r:id="rId51"/>
     <hyperlink ref="E61" r:id="rId52"/>
+    <hyperlink ref="E62" r:id="rId53"/>
+    <hyperlink ref="E63" r:id="rId54"/>
+    <hyperlink ref="E64" r:id="rId55"/>
+    <hyperlink ref="E65" r:id="rId56"/>
+    <hyperlink ref="E66" r:id="rId57"/>
+    <hyperlink ref="E68" r:id="rId58"/>
+    <hyperlink ref="E67" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
-  <drawing r:id="rId54"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
+  <drawing r:id="rId61"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="161">
   <si>
     <t>S. No</t>
   </si>
@@ -468,6 +468,48 @@
   </si>
   <si>
     <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>234. Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/description/</t>
+  </si>
+  <si>
+    <t>328. Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/odd-even-linked-list/description/</t>
+  </si>
+  <si>
+    <t>2095. Delete the Middle Node of a Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-the-middle-node-of-a-linked-list/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/</t>
+  </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>148. Sort List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-list/</t>
+  </si>
+  <si>
+    <t>Find length of Loop</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/find-length-of-loop_8160455</t>
+  </si>
+  <si>
+    <t>142. Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/description/</t>
   </si>
 </sst>
 </file>
@@ -842,10 +884,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1790,13 +1832,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,7 +1860,7 @@
       <c r="E1" s="10"/>
       <c r="H1" s="9">
         <f>SUM(H3:H5)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1869,7 +1911,7 @@
       </c>
       <c r="H3" s="6">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1896,7 +1938,7 @@
       </c>
       <c r="H4" s="6">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3183,6 +3225,146 @@
         <v>144</v>
       </c>
       <c r="F68" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3250,9 +3432,16 @@
     <hyperlink ref="E66" r:id="rId57"/>
     <hyperlink ref="E68" r:id="rId58"/>
     <hyperlink ref="E67" r:id="rId59"/>
+    <hyperlink ref="E71" r:id="rId60"/>
+    <hyperlink ref="E72" r:id="rId61"/>
+    <hyperlink ref="E74" r:id="rId62"/>
+    <hyperlink ref="E73" r:id="rId63"/>
+    <hyperlink ref="E75" r:id="rId64"/>
+    <hyperlink ref="E70" r:id="rId65"/>
+    <hyperlink ref="E69" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
-  <drawing r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
+  <drawing r:id="rId68"/>
 </worksheet>
 </file>
--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -887,7 +887,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1835,10 +1835,10 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1860,7 @@
       <c r="E1" s="10"/>
       <c r="H1" s="9">
         <f>SUM(H3:H5)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="H4" s="6">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>55</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>156</v>

--- a/00_QnA/00_DSA Questions.xlsx
+++ b/00_QnA/00_DSA Questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="167">
   <si>
     <t>S. No</t>
   </si>
@@ -510,6 +510,24 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/linked-list-cycle-ii/description/</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/remove-duplicates-from-a-sorted-doubly-linked-list_2420283</t>
+  </si>
+  <si>
+    <t>Remove duplicates from a sorted Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Find pairs with given sum in doubly linked list</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/find-pairs-with-given-sum-in-doubly-linked-list_1164172</t>
+  </si>
+  <si>
+    <t>Delete all occurrences of a given key in a doubly linked list</t>
+  </si>
+  <si>
+    <t>https://www.naukri.com/code360/problems/delete-all-occurrences-of-a-given-key-in-a-doubly-linked-list_8160461</t>
   </si>
 </sst>
 </file>
@@ -884,10 +902,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1832,13 +1850,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1878,7 @@
       <c r="E1" s="10"/>
       <c r="H1" s="9">
         <f>SUM(H3:H5)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1911,7 +1929,7 @@
       </c>
       <c r="H3" s="6">
         <f>COUNTIF($D:$D,$G3)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1938,7 +1956,7 @@
       </c>
       <c r="H4" s="6">
         <f>COUNTIF($D:$D,$G4)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3365,6 +3383,66 @@
         <v>156</v>
       </c>
       <c r="F75" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3439,9 +3517,12 @@
     <hyperlink ref="E75" r:id="rId64"/>
     <hyperlink ref="E70" r:id="rId65"/>
     <hyperlink ref="E69" r:id="rId66"/>
+    <hyperlink ref="E78" r:id="rId67"/>
+    <hyperlink ref="E77" r:id="rId68"/>
+    <hyperlink ref="E76" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
-  <drawing r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId70"/>
+  <drawing r:id="rId71"/>
 </worksheet>
 </file>